--- a/Test Data Driven/AI-Generated/Common/proceedToCheckoutAndEnterEmail.xlsx
+++ b/Test Data Driven/AI-Generated/Common/proceedToCheckoutAndEnterEmail.xlsx
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,28 +459,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>emily.johnson@example.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t> </t>
+          <t>emily.johnson@example.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t> </t>
+          <t>emily.johnson@example.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t> </t>
+          <t>emily.johnson@example.com</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/Common/proceedToCheckoutAndEnterEmail.xlsx
+++ b/Test Data Driven/AI-Generated/Common/proceedToCheckoutAndEnterEmail.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
